--- a/cor.xlsx
+++ b/cor.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\importação de cataçlogo de produtos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11363D18-F050-4D8E-8005-960ECC29A8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EEC25-FA99-4BFA-8FAA-3307F533C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{017C9A1D-01F1-40E0-8EEE-48E89086D929}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>COR</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>SALMÃO</t>
+  </si>
+  <si>
+    <t>ROSÊ</t>
+  </si>
+  <si>
+    <t>FOSSIL</t>
+  </si>
+  <si>
+    <t>TIJOLO</t>
+  </si>
+  <si>
+    <t>CREME</t>
   </si>
 </sst>
 </file>
@@ -168,8 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,21 +502,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1E02CD-068F-499B-8A68-F613C2E7B422}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -506,7 +526,7 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -514,7 +534,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -522,7 +542,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -530,7 +550,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -546,7 +566,7 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -554,7 +574,7 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -562,7 +582,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -570,7 +590,7 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -578,7 +598,7 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -586,7 +606,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -594,7 +614,7 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -602,7 +622,7 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -610,7 +630,7 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -618,7 +638,7 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -626,7 +646,7 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -634,8 +654,48 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
